--- a/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_insurance_prop_cas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06809999999999999</v>
+        <v>0.0789</v>
       </c>
       <c r="E2">
-        <v>0.06080000000000001</v>
+        <v>0.0354</v>
       </c>
       <c r="F2">
-        <v>0.0475</v>
+        <v>0.03154</v>
       </c>
       <c r="G2">
-        <v>0.143631158167675</v>
+        <v>0.165263497085274</v>
       </c>
       <c r="H2">
-        <v>0.143631158167675</v>
+        <v>0.165263497085274</v>
       </c>
       <c r="I2">
-        <v>0.131476013649401</v>
+        <v>0.1412133462225738</v>
       </c>
       <c r="J2">
-        <v>0.1078382962638605</v>
+        <v>0.117746174684161</v>
       </c>
       <c r="K2">
-        <v>1795.3</v>
+        <v>1676.1</v>
       </c>
       <c r="L2">
-        <v>0.09698033707865168</v>
+        <v>0.09819843571491343</v>
       </c>
       <c r="M2">
-        <v>1321.713</v>
+        <v>687.746</v>
       </c>
       <c r="N2">
-        <v>0.0467350164421343</v>
+        <v>0.02223822442387224</v>
       </c>
       <c r="O2">
-        <v>0.7362073191110122</v>
+        <v>0.4103251595966828</v>
       </c>
       <c r="P2">
-        <v>1262.3</v>
+        <v>598.65</v>
       </c>
       <c r="Q2">
-        <v>0.04463420671121954</v>
+        <v>0.01935731076785778</v>
       </c>
       <c r="R2">
-        <v>0.7031136857349747</v>
+        <v>0.3571684267048506</v>
       </c>
       <c r="S2">
-        <v>59.41300000000003</v>
+        <v>89.096</v>
       </c>
       <c r="T2">
-        <v>0.04495151367959611</v>
+        <v>0.1295478272501767</v>
       </c>
       <c r="U2">
-        <v>3438.4</v>
+        <v>3907.6</v>
       </c>
       <c r="V2">
-        <v>0.1215798592694742</v>
+        <v>0.1263520046044952</v>
       </c>
       <c r="W2">
-        <v>0.152368449255171</v>
+        <v>0.1499925335689465</v>
       </c>
       <c r="X2">
-        <v>0.05055442651843739</v>
+        <v>0.04679304211923487</v>
       </c>
       <c r="Y2">
-        <v>0.1018140227367336</v>
+        <v>0.1031994914497116</v>
       </c>
       <c r="Z2">
-        <v>1.613604038108589</v>
+        <v>1.601682561971419</v>
       </c>
       <c r="AA2">
-        <v>0.2499400163544324</v>
+        <v>0.3548463041953803</v>
       </c>
       <c r="AB2">
-        <v>0.04794975586032658</v>
+        <v>0.04445638117149156</v>
       </c>
       <c r="AC2">
-        <v>0.2010112974574416</v>
+        <v>0.3105436173092129</v>
       </c>
       <c r="AD2">
-        <v>3203.906</v>
+        <v>3558.338</v>
       </c>
       <c r="AE2">
-        <v>817.2551766114408</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4021.161176611441</v>
+        <v>3558.338</v>
       </c>
       <c r="AG2">
-        <v>582.7611766114405</v>
+        <v>-349.2620000000002</v>
       </c>
       <c r="AH2">
-        <v>0.1244858247912832</v>
+        <v>0.1031861781469186</v>
       </c>
       <c r="AI2">
-        <v>0.2368166483493146</v>
+        <v>0.2133406414648047</v>
       </c>
       <c r="AJ2">
-        <v>0.02019006369425122</v>
+        <v>-0.01142236210060635</v>
       </c>
       <c r="AK2">
-        <v>0.04303468895071455</v>
+        <v>-0.02734690215070418</v>
       </c>
       <c r="AL2">
-        <v>118.983</v>
+        <v>144.363</v>
       </c>
       <c r="AM2">
-        <v>118.983</v>
+        <v>144.363</v>
       </c>
       <c r="AN2">
-        <v>1.144401323743988</v>
+        <v>1.39778371371332</v>
       </c>
       <c r="AO2">
-        <v>20.77691771093349</v>
+        <v>16.69610634303804</v>
       </c>
       <c r="AP2">
-        <v>0.2081561262848338</v>
+        <v>-0.1371968417331187</v>
       </c>
       <c r="AQ2">
-        <v>20.77691771093349</v>
+        <v>16.69610634303804</v>
       </c>
     </row>
     <row r="3">
@@ -728,121 +728,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.152</v>
+        <v>0.0794</v>
       </c>
       <c r="E3">
-        <v>0.316</v>
+        <v>0.0354</v>
       </c>
       <c r="G3">
-        <v>0.1627906976744186</v>
+        <v>0.1528878822197056</v>
       </c>
       <c r="H3">
-        <v>0.1627906976744186</v>
+        <v>0.1528878822197056</v>
       </c>
       <c r="I3">
-        <v>0.1486586702565997</v>
+        <v>0.1415628539071348</v>
       </c>
       <c r="J3">
-        <v>0.1241802877105882</v>
+        <v>0.1167083070379432</v>
       </c>
       <c r="K3">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="L3">
-        <v>0.1358629130966952</v>
+        <v>0.1223103057757644</v>
       </c>
       <c r="M3">
-        <v>9.180999999999999</v>
+        <v>7.419</v>
       </c>
       <c r="N3">
-        <v>0.06726007326007326</v>
+        <v>0.08469178082191781</v>
       </c>
       <c r="O3">
-        <v>0.8271171171171171</v>
+        <v>0.6869444444444444</v>
       </c>
       <c r="P3">
-        <v>9.1</v>
+        <v>7.35</v>
       </c>
       <c r="Q3">
-        <v>0.06666666666666667</v>
+        <v>0.0839041095890411</v>
       </c>
       <c r="R3">
-        <v>0.8198198198198198</v>
+        <v>0.6805555555555555</v>
       </c>
       <c r="S3">
-        <v>0.08099999999999952</v>
+        <v>0.06899999999999995</v>
       </c>
       <c r="T3">
-        <v>0.008822568347674493</v>
+        <v>0.009300444803881919</v>
       </c>
       <c r="U3">
-        <v>20.8</v>
+        <v>19.7</v>
       </c>
       <c r="V3">
-        <v>0.1523809523809524</v>
+        <v>0.2248858447488584</v>
       </c>
       <c r="W3">
-        <v>0.251131221719457</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="X3">
-        <v>0.04807164795126372</v>
+        <v>0.0440802498927258</v>
       </c>
       <c r="Y3">
-        <v>0.2030595737681933</v>
+        <v>0.189685983873508</v>
       </c>
       <c r="Z3">
-        <v>6.334348203855318</v>
+        <v>8.908393866020981</v>
       </c>
       <c r="AA3">
-        <v>0.7866011824138006</v>
+        <v>1.039683566530506</v>
       </c>
       <c r="AB3">
-        <v>0.04789928988423515</v>
+        <v>0.04404108254468058</v>
       </c>
       <c r="AC3">
-        <v>0.7387018925295654</v>
+        <v>0.9956424839858259</v>
       </c>
       <c r="AD3">
-        <v>0.512</v>
+        <v>0.142</v>
       </c>
       <c r="AE3">
-        <v>1.197933200179043</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.709933200179043</v>
+        <v>0.142</v>
       </c>
       <c r="AG3">
-        <v>-19.09006679982096</v>
+        <v>-19.558</v>
       </c>
       <c r="AH3">
-        <v>0.01237199932440766</v>
+        <v>0.001618381162955027</v>
       </c>
       <c r="AI3">
-        <v>0.03569057783976731</v>
+        <v>0.002919287858229513</v>
       </c>
       <c r="AJ3">
-        <v>-0.1625932855891604</v>
+        <v>-0.2874401105199729</v>
       </c>
       <c r="AK3">
-        <v>-0.7041724027447948</v>
+        <v>-0.6757653237509502</v>
       </c>
       <c r="AL3">
-        <v>0.183</v>
+        <v>0.132</v>
       </c>
       <c r="AM3">
-        <v>0.183</v>
+        <v>0.132</v>
       </c>
       <c r="AN3">
-        <v>0.03973612727978269</v>
+        <v>0.01092307692307692</v>
       </c>
       <c r="AO3">
-        <v>64.48087431693989</v>
+        <v>94.69696969696969</v>
       </c>
       <c r="AP3">
-        <v>-1.481572898705546</v>
+        <v>-1.504461538461539</v>
       </c>
       <c r="AQ3">
-        <v>64.48087431693989</v>
+        <v>94.69696969696969</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sabre Insurance Group plc (LSE:SBRE)</t>
+          <t>Admiral Group plc (LSE:ADM)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -861,110 +861,125 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.0956</v>
+      </c>
+      <c r="E4">
+        <v>0.11</v>
+      </c>
+      <c r="F4">
+        <v>-0.00622</v>
+      </c>
       <c r="G4">
-        <v>0.3195959595959596</v>
+        <v>0.4224873213462425</v>
       </c>
       <c r="H4">
-        <v>0.3195959595959596</v>
+        <v>0.4224873213462425</v>
       </c>
       <c r="I4">
-        <v>0.3074747474747475</v>
+        <v>0.4355117565698479</v>
       </c>
       <c r="J4">
-        <v>0.2484848484848484</v>
+        <v>0.3615265833158811</v>
       </c>
       <c r="K4">
-        <v>61.5</v>
+        <v>610.3</v>
       </c>
       <c r="L4">
-        <v>0.2484848484848485</v>
+        <v>0.3517173812816966</v>
       </c>
       <c r="M4">
-        <v>63.932</v>
+        <v>236.8</v>
       </c>
       <c r="N4">
-        <v>0.06269072367130811</v>
+        <v>0.02073355456129445</v>
       </c>
       <c r="O4">
-        <v>1.039544715447154</v>
+        <v>0.3880058987383255</v>
       </c>
       <c r="P4">
-        <v>63.4</v>
+        <v>236.8</v>
       </c>
       <c r="Q4">
-        <v>0.06216905275544225</v>
+        <v>0.02073355456129445</v>
       </c>
       <c r="R4">
-        <v>1.030894308943089</v>
+        <v>0.3880058987383255</v>
       </c>
       <c r="S4">
-        <v>0.5320000000000036</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0083213414252644</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>23.7</v>
+        <v>485.2</v>
       </c>
       <c r="V4">
-        <v>0.02323985095116689</v>
+        <v>0.04248277311292257</v>
       </c>
       <c r="W4">
-        <v>0.1805107132374523</v>
+        <v>0.5921218589308237</v>
       </c>
       <c r="X4">
-        <v>0.04779057865733909</v>
+        <v>0.04640396814756931</v>
       </c>
       <c r="Y4">
-        <v>0.1327201345801132</v>
+        <v>0.5457178907832544</v>
       </c>
       <c r="Z4">
-        <v>3.164961636828645</v>
+        <v>1.485362095531587</v>
       </c>
       <c r="AA4">
-        <v>0.7864450127877238</v>
+        <v>0.5369978833844522</v>
       </c>
       <c r="AB4">
-        <v>0.04778224125882074</v>
+        <v>0.04434370664451491</v>
       </c>
       <c r="AC4">
-        <v>0.7386627715289031</v>
+        <v>0.4926541767399373</v>
       </c>
       <c r="AD4">
-        <v>0.394</v>
+        <v>961.8</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.394</v>
+        <v>961.8</v>
       </c>
       <c r="AG4">
-        <v>-23.306</v>
+        <v>476.6</v>
       </c>
       <c r="AH4">
-        <v>0.0003862010558776076</v>
+        <v>0.07767162780931769</v>
       </c>
       <c r="AI4">
-        <v>0.001199413079082114</v>
+        <v>0.4250110472823685</v>
       </c>
       <c r="AJ4">
-        <v>-0.02338799832211735</v>
+        <v>0.04005816250199618</v>
       </c>
       <c r="AK4">
-        <v>-0.07646475980498303</v>
+        <v>0.2680841489481381</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="AN4">
-        <v>0.005143603133159269</v>
+        <v>1.245854922279793</v>
+      </c>
+      <c r="AO4">
+        <v>28.30337078651686</v>
       </c>
       <c r="AP4">
-        <v>-0.3042558746736293</v>
+        <v>0.6173575129533678</v>
+      </c>
+      <c r="AQ4">
+        <v>28.30337078651686</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +990,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Admiral Group plc (LSE:ADM)</t>
+          <t>Sabre Insurance Group plc (LSE:SBRE)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -983,125 +998,116 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.0756</v>
-      </c>
-      <c r="E5">
-        <v>0.063</v>
-      </c>
-      <c r="F5">
-        <v>0.02</v>
-      </c>
       <c r="G5">
-        <v>0.3833552552911635</v>
+        <v>0.3302509907529723</v>
       </c>
       <c r="H5">
-        <v>0.3833552552911635</v>
+        <v>0.3302509907529723</v>
       </c>
       <c r="I5">
-        <v>0.3684655017275008</v>
+        <v>0.2932628797886394</v>
       </c>
       <c r="J5">
-        <v>0.3015099192596924</v>
+        <v>0.23778071334214</v>
       </c>
       <c r="K5">
-        <v>509.7</v>
+        <v>53.9</v>
       </c>
       <c r="L5">
-        <v>0.3047351428913069</v>
+        <v>0.2373403786878027</v>
       </c>
       <c r="M5">
-        <v>319.1</v>
+        <v>21.627</v>
       </c>
       <c r="N5">
-        <v>0.03841338630071025</v>
+        <v>0.02300255264837268</v>
       </c>
       <c r="O5">
-        <v>0.6260545418873847</v>
+        <v>0.4012430426716141</v>
       </c>
       <c r="P5">
-        <v>319.1</v>
+        <v>21</v>
       </c>
       <c r="Q5">
-        <v>0.03841338630071025</v>
+        <v>0.0223356732610083</v>
       </c>
       <c r="R5">
-        <v>0.6260545418873847</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="S5">
+        <v>0.6269999999999989</v>
+      </c>
+      <c r="T5">
+        <v>0.02899153835483418</v>
+      </c>
+      <c r="U5">
+        <v>46.1</v>
+      </c>
+      <c r="V5">
+        <v>0.04903212082535631</v>
+      </c>
+      <c r="W5">
+        <v>0.164279183175861</v>
+      </c>
+      <c r="X5">
+        <v>0.04404649295215926</v>
+      </c>
+      <c r="Y5">
+        <v>0.1202326902237018</v>
+      </c>
+      <c r="Z5">
+        <v>2.138538900502852</v>
+      </c>
+      <c r="AA5">
+        <v>0.508503305271484</v>
+      </c>
+      <c r="AB5">
+        <v>0.04403631807386676</v>
+      </c>
+      <c r="AC5">
+        <v>0.4644669871976173</v>
+      </c>
+      <c r="AD5">
+        <v>0.396</v>
+      </c>
+      <c r="AE5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>580.7</v>
-      </c>
-      <c r="V5">
-        <v>0.06990489948236428</v>
-      </c>
-      <c r="W5">
-        <v>0.5761926294370336</v>
-      </c>
-      <c r="X5">
-        <v>0.05055442651843739</v>
-      </c>
-      <c r="Y5">
-        <v>0.5256382029185962</v>
-      </c>
-      <c r="Z5">
-        <v>1.487253938907548</v>
-      </c>
-      <c r="AA5">
-        <v>0.4484218150386742</v>
-      </c>
-      <c r="AB5">
-        <v>0.04794975586032658</v>
-      </c>
-      <c r="AC5">
-        <v>0.4004720591783477</v>
-      </c>
-      <c r="AD5">
-        <v>797.4</v>
-      </c>
-      <c r="AE5">
-        <v>197.5230090529105</v>
-      </c>
       <c r="AF5">
-        <v>994.9230090529104</v>
+        <v>0.396</v>
       </c>
       <c r="AG5">
-        <v>414.2230090529104</v>
+        <v>-45.704</v>
       </c>
       <c r="AH5">
-        <v>0.1069588522808264</v>
+        <v>0.0004210096577063905</v>
       </c>
       <c r="AI5">
-        <v>0.4876540479340847</v>
+        <v>0.001175436930091185</v>
       </c>
       <c r="AJ5">
-        <v>0.04749597718381167</v>
+        <v>-0.05109469466604658</v>
       </c>
       <c r="AK5">
-        <v>0.2838071112847348</v>
+        <v>-0.1571685992929752</v>
       </c>
       <c r="AL5">
-        <v>23.9</v>
+        <v>0.031</v>
       </c>
       <c r="AM5">
-        <v>23.9</v>
+        <v>0.031</v>
       </c>
       <c r="AN5">
-        <v>1.189439140811456</v>
+        <v>0.005928143712574851</v>
       </c>
       <c r="AO5">
-        <v>26.64853556485356</v>
+        <v>2148.387096774193</v>
       </c>
       <c r="AP5">
-        <v>0.6178744168450334</v>
+        <v>-0.6841916167664671</v>
       </c>
       <c r="AQ5">
-        <v>26.64853556485356</v>
+        <v>2148.387096774193</v>
       </c>
     </row>
     <row r="6">
@@ -1112,7 +1118,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hastings Group Holdings plc (LSE:HSTG)</t>
+          <t>Direct Line Insurance Group plc (LSE:DLG)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1120,119 +1126,125 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.00157</v>
+      </c>
+      <c r="E6">
+        <v>-0.08500000000000001</v>
+      </c>
       <c r="F6">
-        <v>0.075</v>
+        <v>-0.0137</v>
       </c>
       <c r="G6">
-        <v>0.2419253355704698</v>
+        <v>0.2022021526660893</v>
       </c>
       <c r="H6">
-        <v>0.2419253355704698</v>
+        <v>0.2022021526660893</v>
       </c>
       <c r="I6">
-        <v>0.1632546705001182</v>
+        <v>0.16966472844241</v>
       </c>
       <c r="J6">
-        <v>0.1395564118791333</v>
+        <v>0.1402426091173144</v>
       </c>
       <c r="K6">
-        <v>121.9</v>
+        <v>496.1</v>
       </c>
       <c r="L6">
-        <v>0.1278313758389262</v>
+        <v>0.1227514536681925</v>
       </c>
       <c r="M6">
-        <v>116</v>
+        <v>210.5</v>
       </c>
       <c r="N6">
-        <v>0.07395600892572521</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="O6">
-        <v>0.9515996718621821</v>
+        <v>0.4243096149969764</v>
       </c>
       <c r="P6">
-        <v>113.2</v>
+        <v>142.6</v>
       </c>
       <c r="Q6">
-        <v>0.07217086388269046</v>
+        <v>0.02419409569053274</v>
       </c>
       <c r="R6">
-        <v>0.9286300246103363</v>
+        <v>0.2874420479741987</v>
       </c>
       <c r="S6">
-        <v>2.799999999999997</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="T6">
-        <v>0.02413793103448273</v>
+        <v>0.3225653206650831</v>
       </c>
       <c r="U6">
-        <v>40.4</v>
+        <v>1857.3</v>
       </c>
       <c r="V6">
-        <v>0.02575709276378706</v>
+        <v>0.3151170682049542</v>
       </c>
       <c r="W6">
-        <v>0.1475251119448142</v>
+        <v>0.1357058839620319</v>
       </c>
       <c r="X6">
-        <v>0.05280671559437818</v>
+        <v>0.04839953925056728</v>
       </c>
       <c r="Y6">
-        <v>0.09471839635043607</v>
+        <v>0.08730634471146462</v>
       </c>
       <c r="Z6">
-        <v>1.790960465298433</v>
+        <v>1.434580434473946</v>
       </c>
       <c r="AA6">
-        <v>0.2499400163544324</v>
+        <v>0.2011893031192767</v>
       </c>
       <c r="AB6">
-        <v>0.04892871889699073</v>
+        <v>0.04456905569846822</v>
       </c>
       <c r="AC6">
-        <v>0.2010112974574416</v>
+        <v>0.1566202474208084</v>
       </c>
       <c r="AD6">
-        <v>325.1</v>
+        <v>914.4</v>
       </c>
       <c r="AE6">
-        <v>15.35173105543644</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>340.4517310554365</v>
+        <v>914.4</v>
       </c>
       <c r="AG6">
-        <v>300.0517310554365</v>
+        <v>-942.9</v>
       </c>
       <c r="AH6">
-        <v>0.1783448609605256</v>
+        <v>0.1343046824510898</v>
       </c>
       <c r="AI6">
-        <v>0.2959030192785245</v>
+        <v>0.1922421948912015</v>
       </c>
       <c r="AJ6">
-        <v>0.1605798362809868</v>
+        <v>-0.1904425279230878</v>
       </c>
       <c r="AK6">
-        <v>0.2702799290058965</v>
+        <v>-0.3252276490066225</v>
       </c>
       <c r="AL6">
-        <v>12.2</v>
+        <v>32.8</v>
       </c>
       <c r="AM6">
-        <v>12.2</v>
+        <v>32.8</v>
       </c>
       <c r="AN6">
-        <v>1.843493053586618</v>
+        <v>1.207766477347774</v>
       </c>
       <c r="AO6">
-        <v>12.68852459016394</v>
+        <v>20.90548780487805</v>
       </c>
       <c r="AP6">
-        <v>1.701455804113618</v>
+        <v>-1.245410117553824</v>
       </c>
       <c r="AQ6">
-        <v>12.68852459016394</v>
+        <v>20.90548780487805</v>
       </c>
     </row>
     <row r="7">
@@ -1243,7 +1255,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Direct Line Insurance Group plc (LSE:DLG)</t>
+          <t>RSA Insurance Group plc (LSE:RSA)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1252,124 +1264,124 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.009389999999999999</v>
+        <v>-0.00357</v>
       </c>
       <c r="E7">
-        <v>0.05860000000000001</v>
+        <v>0.0425</v>
       </c>
       <c r="F7">
-        <v>0.0197</v>
+        <v>0.0693</v>
       </c>
       <c r="G7">
-        <v>0.197668381554727</v>
+        <v>0.1054720862253552</v>
       </c>
       <c r="H7">
-        <v>0.197668381554727</v>
+        <v>0.1054720862253552</v>
       </c>
       <c r="I7">
-        <v>0.166166508419189</v>
+        <v>0.09219184179187065</v>
       </c>
       <c r="J7">
-        <v>0.1349168594704425</v>
+        <v>0.07049688343331541</v>
       </c>
       <c r="K7">
-        <v>568.7</v>
+        <v>422.2</v>
       </c>
       <c r="L7">
-        <v>0.1342096568650588</v>
+        <v>0.0507873115925467</v>
       </c>
       <c r="M7">
-        <v>397.7</v>
+        <v>113.9</v>
       </c>
       <c r="N7">
-        <v>0.07029855231294081</v>
+        <v>0.01189730091083814</v>
       </c>
       <c r="O7">
-        <v>0.6993142254264111</v>
+        <v>0.2697773567029844</v>
       </c>
       <c r="P7">
-        <v>386.6</v>
+        <v>113.9</v>
       </c>
       <c r="Q7">
-        <v>0.06833648560267265</v>
+        <v>0.01189730091083814</v>
       </c>
       <c r="R7">
-        <v>0.6797960260242658</v>
+        <v>0.2697773567029844</v>
       </c>
       <c r="S7">
-        <v>11.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.02791048529041997</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1448.2</v>
+        <v>1149</v>
       </c>
       <c r="V7">
-        <v>0.2559878387216517</v>
+        <v>0.1200175482577087</v>
       </c>
       <c r="W7">
-        <v>0.152368449255171</v>
+        <v>0.08217684956303405</v>
       </c>
       <c r="X7">
-        <v>0.05124830837725815</v>
+        <v>0.04718211609090042</v>
       </c>
       <c r="Y7">
-        <v>0.1011201408779128</v>
+        <v>0.03499473347213362</v>
       </c>
       <c r="Z7">
-        <v>1.376928067810643</v>
+        <v>1.702283198525648</v>
       </c>
       <c r="AA7">
-        <v>0.1857708106257165</v>
+        <v>0.1200056602169539</v>
       </c>
       <c r="AB7">
-        <v>0.04798634833482472</v>
+        <v>0.04485063647243124</v>
       </c>
       <c r="AC7">
-        <v>0.1377844622908918</v>
+        <v>0.07515502374452265</v>
       </c>
       <c r="AD7">
-        <v>609.7</v>
+        <v>1071</v>
       </c>
       <c r="AE7">
-        <v>237.4301861226428</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>847.1301861226428</v>
+        <v>1071</v>
       </c>
       <c r="AG7">
-        <v>-601.0698138773572</v>
+        <v>-78</v>
       </c>
       <c r="AH7">
-        <v>0.1302389543560657</v>
+        <v>0.1006143960317908</v>
       </c>
       <c r="AI7">
-        <v>0.1881328300439642</v>
+        <v>0.1566728594625433</v>
       </c>
       <c r="AJ7">
-        <v>-0.1188770668564609</v>
+        <v>-0.008214330847971692</v>
       </c>
       <c r="AK7">
-        <v>-0.1967733497194035</v>
+        <v>-0.01371573264871899</v>
       </c>
       <c r="AL7">
-        <v>24.7</v>
+        <v>49.5</v>
       </c>
       <c r="AM7">
-        <v>24.7</v>
+        <v>49.5</v>
       </c>
       <c r="AN7">
-        <v>0.7259197523514704</v>
+        <v>1.338917364670584</v>
       </c>
       <c r="AO7">
-        <v>29.43724696356275</v>
+        <v>15.48282828282828</v>
       </c>
       <c r="AP7">
-        <v>-0.7156444980085215</v>
+        <v>-0.09751218902362796</v>
       </c>
       <c r="AQ7">
-        <v>29.43724696356275</v>
+        <v>15.48282828282828</v>
       </c>
     </row>
     <row r="8">
@@ -1389,255 +1401,124 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.06809999999999999</v>
+        <v>0.0789</v>
       </c>
       <c r="E8">
-        <v>-0.12</v>
+        <v>-0.189</v>
+      </c>
+      <c r="F8">
+        <v>1.65</v>
       </c>
       <c r="G8">
-        <v>0.05028230095736847</v>
+        <v>0.1145946757781699</v>
       </c>
       <c r="H8">
-        <v>0.05028230095736847</v>
+        <v>0.1145946757781699</v>
       </c>
       <c r="I8">
-        <v>0.09258887798761878</v>
+        <v>0.04633349603874892</v>
       </c>
       <c r="J8">
-        <v>0.07949550130250096</v>
+        <v>0.04384472539438184</v>
       </c>
       <c r="K8">
-        <v>161.5</v>
+        <v>82.8</v>
       </c>
       <c r="L8">
-        <v>0.06607478929711154</v>
+        <v>0.03108925017835016</v>
       </c>
       <c r="M8">
-        <v>123.5</v>
+        <v>97.5</v>
       </c>
       <c r="N8">
-        <v>0.03195425496131853</v>
+        <v>0.03239417901521695</v>
       </c>
       <c r="O8">
-        <v>0.7647058823529411</v>
+        <v>1.177536231884058</v>
       </c>
       <c r="P8">
-        <v>78.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="Q8">
-        <v>0.02033687805635333</v>
+        <v>0.0255830952222739</v>
       </c>
       <c r="R8">
-        <v>0.486687306501548</v>
+        <v>0.9299516908212561</v>
       </c>
       <c r="S8">
-        <v>44.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="T8">
-        <v>0.3635627530364373</v>
+        <v>0.2102564102564103</v>
       </c>
       <c r="U8">
-        <v>285.1</v>
+        <v>350.3</v>
       </c>
       <c r="V8">
-        <v>0.07376646226293049</v>
+        <v>0.1163864708618513</v>
       </c>
       <c r="W8">
-        <v>0.1095658073270014</v>
+        <v>0.0530871321407963</v>
       </c>
       <c r="X8">
-        <v>0.05033623856102235</v>
+        <v>0.04974242011147174</v>
       </c>
       <c r="Y8">
-        <v>0.05922956876597901</v>
+        <v>0.003344712029324556</v>
       </c>
       <c r="Z8">
-        <v>1.655994234698523</v>
+        <v>1.593263938741326</v>
       </c>
       <c r="AA8">
-        <v>0.1316440918414105</v>
+        <v>0.06985621987488463</v>
       </c>
       <c r="AB8">
-        <v>0.04793784126664746</v>
+        <v>0.04470574091029064</v>
       </c>
       <c r="AC8">
-        <v>0.08370625057476305</v>
+        <v>0.02515047896459399</v>
       </c>
       <c r="AD8">
-        <v>397</v>
+        <v>610.6</v>
       </c>
       <c r="AE8">
-        <v>29.47132211331106</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>426.4713221133111</v>
+        <v>610.6</v>
       </c>
       <c r="AG8">
-        <v>141.3713221133111</v>
+        <v>260.3</v>
       </c>
       <c r="AH8">
-        <v>0.09937879761551205</v>
+        <v>0.1686553971936803</v>
       </c>
       <c r="AI8">
-        <v>0.2147203100584195</v>
+        <v>0.2504306455581987</v>
       </c>
       <c r="AJ8">
-        <v>0.03528750569962336</v>
+        <v>0.07960001223204183</v>
       </c>
       <c r="AK8">
-        <v>0.0831072279424943</v>
+        <v>0.1246707217778629</v>
       </c>
       <c r="AL8">
-        <v>22.4</v>
+        <v>35.2</v>
       </c>
       <c r="AM8">
-        <v>22.4</v>
+        <v>35.2</v>
       </c>
       <c r="AN8">
-        <v>1.633072809543398</v>
+        <v>4.460189919649379</v>
       </c>
       <c r="AO8">
-        <v>9.928571428571429</v>
+        <v>3.505681818181818</v>
       </c>
       <c r="AP8">
-        <v>0.5815356730288402</v>
+        <v>1.901387874360847</v>
       </c>
       <c r="AQ8">
-        <v>9.928571428571429</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>RSA Insurance Group plc (LSE:RSA)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Insurance (Prop/Cas.)</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>-0.0295</v>
-      </c>
-      <c r="F9">
-        <v>0.144</v>
-      </c>
-      <c r="G9">
-        <v>0.08271549295774648</v>
-      </c>
-      <c r="H9">
-        <v>0.08271549295774648</v>
-      </c>
-      <c r="I9">
-        <v>0.0724781747590544</v>
-      </c>
-      <c r="J9">
-        <v>0.05467432673763628</v>
-      </c>
-      <c r="K9">
-        <v>360.9</v>
-      </c>
-      <c r="L9">
-        <v>0.04066478873239436</v>
-      </c>
-      <c r="M9">
-        <v>292.3</v>
-      </c>
-      <c r="N9">
-        <v>0.03782839394331565</v>
-      </c>
-      <c r="O9">
-        <v>0.8099196453311167</v>
-      </c>
-      <c r="P9">
-        <v>292.3</v>
-      </c>
-      <c r="Q9">
-        <v>0.03782839394331565</v>
-      </c>
-      <c r="R9">
-        <v>0.8099196453311167</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>1039.5</v>
-      </c>
-      <c r="V9">
-        <v>0.1345282774686165</v>
-      </c>
-      <c r="W9">
-        <v>0.06825790100807595</v>
-      </c>
-      <c r="X9">
-        <v>0.05200642515066579</v>
-      </c>
-      <c r="Y9">
-        <v>0.01625147585741016</v>
-      </c>
-      <c r="Z9">
-        <v>1.71634195574541</v>
-      </c>
-      <c r="AA9">
-        <v>0.09383984088193824</v>
-      </c>
-      <c r="AB9">
-        <v>0.04863672413299256</v>
-      </c>
-      <c r="AC9">
-        <v>0.04520311674894568</v>
-      </c>
-      <c r="AD9">
-        <v>1073.8</v>
-      </c>
-      <c r="AE9">
-        <v>336.2809950669609</v>
-      </c>
-      <c r="AF9">
-        <v>1410.080995066961</v>
-      </c>
-      <c r="AG9">
-        <v>370.5809950669609</v>
-      </c>
-      <c r="AH9">
-        <v>0.1543251062158968</v>
-      </c>
-      <c r="AI9">
-        <v>0.2036547127357616</v>
-      </c>
-      <c r="AJ9">
-        <v>0.04576440733259952</v>
-      </c>
-      <c r="AK9">
-        <v>0.06297705661438802</v>
-      </c>
-      <c r="AL9">
-        <v>35.6</v>
-      </c>
-      <c r="AM9">
-        <v>35.6</v>
-      </c>
-      <c r="AN9">
-        <v>1.375961045617632</v>
-      </c>
-      <c r="AO9">
-        <v>18.06179775280899</v>
-      </c>
-      <c r="AP9">
-        <v>0.4748603217157367</v>
-      </c>
-      <c r="AQ9">
-        <v>18.06179775280899</v>
+        <v>3.505681818181818</v>
       </c>
     </row>
   </sheetData>
